--- a/src/resource/data/file/Example.xlsx
+++ b/src/resource/data/file/Example.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Hardware</t>
   </si>
@@ -20,25 +20,28 @@
     <t>Item</t>
   </si>
   <si>
+    <t>Num</t>
+  </si>
+  <si>
     <t>Value</t>
   </si>
   <si>
     <t>PSU</t>
   </si>
   <si>
-    <t>JetSoft WD500K 500W</t>
+    <t>DeepCool DQ750M-V3L 750w</t>
   </si>
   <si>
     <t>MB</t>
   </si>
   <si>
-    <t>ASUS PRIME H610M-D D4</t>
+    <t>TUF AMING B760M-PLUS WIFI D4</t>
   </si>
   <si>
     <t>CPU</t>
   </si>
   <si>
-    <t>i9-14900KF</t>
+    <t>i7-13700F</t>
   </si>
   <si>
     <t>HDD</t>
@@ -50,31 +53,31 @@
     <t>HSF</t>
   </si>
   <si>
-    <t>Thermaltake AX120R SE</t>
+    <t>ID-COOLING FROSTFLOW X 360</t>
   </si>
   <si>
     <t>GPU</t>
   </si>
   <si>
-    <t>AMD Radeon RX 6700 XT, 12GB</t>
+    <t>GIGABYTE Radeon RX 6650XT 8G</t>
   </si>
   <si>
     <t>RAM</t>
   </si>
   <si>
-    <t>SAMSUNG 16GB DDR4 2666</t>
+    <t>KINGBANK Heatsink  DDR4 16g 3600</t>
   </si>
   <si>
     <t>Case</t>
   </si>
   <si>
-    <t>NZXT H6 FLOW RGB</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Here is an example file</t>
+    <t>SAMA Luban 1</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Here is a example file</t>
   </si>
 </sst>
 </file>
@@ -197,15 +200,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="10.109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.25" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.3359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="34.26171875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="5.4765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="6.2734375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -218,120 +222,150 @@
       <c r="C1" t="s" s="1">
         <v>2</v>
       </c>
+      <c r="D1" t="s" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n" s="3">
-        <v>299.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="D2" t="n" s="3">
+        <v>499.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n" s="3">
-        <v>769.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="D3" t="n" s="3">
+        <v>1299.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n" s="3">
-        <v>4061.58</v>
+        <v>1.0</v>
+      </c>
+      <c r="D4" t="n" s="3">
+        <v>2569.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="n" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D5" t="n" s="3">
         <v>699.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="n" s="3">
-        <v>89.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="D6" t="n" s="3">
+        <v>399.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n" s="3">
-        <v>4999.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="D7" t="n" s="3">
+        <v>3199.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="n" s="3">
-        <v>899.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="D8" t="n" s="3">
+        <v>519.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="n" s="3">
-        <v>799.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="D9" t="n" s="3">
+        <v>229.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" t="n" s="3">
-        <v>12614.58</v>
+      <c r="C10" s="4"/>
+      <c r="D10" t="n" s="3">
+        <v>10630.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:C12"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:D12"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
